--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N2">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O2">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P2">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q2">
-        <v>2.519465266676444</v>
+        <v>13.05436238281111</v>
       </c>
       <c r="R2">
-        <v>22.675187400088</v>
+        <v>117.4892614453</v>
       </c>
       <c r="S2">
-        <v>0.0004730889815018524</v>
+        <v>0.001749234060604895</v>
       </c>
       <c r="T2">
-        <v>0.0004730889815018524</v>
+        <v>0.001749234060604895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.860601</v>
       </c>
       <c r="O3">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P3">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q3">
-        <v>38.70989734048489</v>
+        <v>64.34841895727722</v>
       </c>
       <c r="R3">
-        <v>348.389076064364</v>
+        <v>579.1357706154949</v>
       </c>
       <c r="S3">
-        <v>0.007268695524034422</v>
+        <v>0.008622439218812648</v>
       </c>
       <c r="T3">
-        <v>0.007268695524034422</v>
+        <v>0.008622439218812648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N4">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O4">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P4">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q4">
-        <v>2.986829435644444</v>
+        <v>8.207995952693333</v>
       </c>
       <c r="R4">
-        <v>26.8814649208</v>
+        <v>73.87196357424</v>
       </c>
       <c r="S4">
-        <v>0.00056084761886509</v>
+        <v>0.001099839706354661</v>
       </c>
       <c r="T4">
-        <v>0.0005608476188650901</v>
+        <v>0.001099839706354661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N5">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O5">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P5">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q5">
-        <v>85.49600445808177</v>
+        <v>106.0610562162089</v>
       </c>
       <c r="R5">
-        <v>769.464040122736</v>
+        <v>954.5495059458801</v>
       </c>
       <c r="S5">
-        <v>0.01605388977039074</v>
+        <v>0.01421177125291142</v>
       </c>
       <c r="T5">
-        <v>0.01605388977039074</v>
+        <v>0.01421177125291142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N6">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O6">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P6">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q6">
-        <v>0.7056037773586665</v>
+        <v>0.2614627579372222</v>
       </c>
       <c r="R6">
-        <v>6.350433996228</v>
+        <v>2.353164821435</v>
       </c>
       <c r="S6">
-        <v>0.0001324937385681136</v>
+        <v>3.503499813715105E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001324937385681136</v>
+        <v>3.503499813715105E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N7">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O7">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P7">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q7">
-        <v>67.4261736927491</v>
+        <v>210.1647824577711</v>
       </c>
       <c r="R7">
-        <v>606.835563234742</v>
+        <v>1891.48304211994</v>
       </c>
       <c r="S7">
-        <v>0.01266085318213127</v>
+        <v>0.02816126786083496</v>
       </c>
       <c r="T7">
-        <v>0.01266085318213127</v>
+        <v>0.02816126786083496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>5.860601</v>
       </c>
       <c r="O8">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P8">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q8">
         <v>1035.958024994361</v>
@@ -951,10 +951,10 @@
         <v>9323.622224949251</v>
       </c>
       <c r="S8">
-        <v>0.1945255342097926</v>
+        <v>0.1388143679129958</v>
       </c>
       <c r="T8">
-        <v>0.1945255342097926</v>
+        <v>0.1388143679129958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N9">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O9">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P9">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q9">
-        <v>79.9338188869111</v>
+        <v>132.1421631502613</v>
       </c>
       <c r="R9">
-        <v>719.4043699822</v>
+        <v>1189.279468352352</v>
       </c>
       <c r="S9">
-        <v>0.01500945834218508</v>
+        <v>0.01770653869152597</v>
       </c>
       <c r="T9">
-        <v>0.01500945834218508</v>
+        <v>0.01770653869152598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N10">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O10">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P10">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q10">
-        <v>2288.05235891628</v>
+        <v>1707.498087863025</v>
       </c>
       <c r="R10">
-        <v>20592.47123024652</v>
+        <v>15367.48279076722</v>
       </c>
       <c r="S10">
-        <v>0.4296357542291234</v>
+        <v>0.2287981385931586</v>
       </c>
       <c r="T10">
-        <v>0.4296357542291235</v>
+        <v>0.2287981385931586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N11">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O11">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P11">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q11">
-        <v>18.88343668781966</v>
+        <v>4.209341064029222</v>
       </c>
       <c r="R11">
-        <v>169.950930190377</v>
+        <v>37.884069576263</v>
       </c>
       <c r="S11">
-        <v>0.003545810274923938</v>
+        <v>0.0005640354194240777</v>
       </c>
       <c r="T11">
-        <v>0.003545810274923939</v>
+        <v>0.0005640354194240777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H12">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N12">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O12">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P12">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q12">
-        <v>14.51452477359422</v>
+        <v>167.3158786641845</v>
       </c>
       <c r="R12">
-        <v>130.630722962348</v>
+        <v>1505.84290797766</v>
       </c>
       <c r="S12">
-        <v>0.002725444098374597</v>
+        <v>0.02241968050655593</v>
       </c>
       <c r="T12">
-        <v>0.002725444098374597</v>
+        <v>0.02241968050655593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H13">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>5.860601</v>
       </c>
       <c r="O13">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P13">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q13">
-        <v>223.0059574002105</v>
+        <v>824.7443990573099</v>
       </c>
       <c r="R13">
-        <v>2007.053616601894</v>
+        <v>7422.699591515789</v>
       </c>
       <c r="S13">
-        <v>0.04187462421122546</v>
+        <v>0.1105125590832188</v>
       </c>
       <c r="T13">
-        <v>0.04187462421122546</v>
+        <v>0.1105125590832188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N14">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O14">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P14">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q14">
-        <v>17.20698848742222</v>
+        <v>105.2006995535253</v>
       </c>
       <c r="R14">
-        <v>154.8628963868</v>
+        <v>946.806295981728</v>
       </c>
       <c r="S14">
-        <v>0.003231017615482807</v>
+        <v>0.01409648678826257</v>
       </c>
       <c r="T14">
-        <v>0.003231017615482807</v>
+        <v>0.01409648678826257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N15">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O15">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P15">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q15">
-        <v>492.5385918842729</v>
+        <v>1359.36925086686</v>
       </c>
       <c r="R15">
-        <v>4432.847326958457</v>
+        <v>12234.32325780174</v>
       </c>
       <c r="S15">
-        <v>0.09248572856583519</v>
+        <v>0.1821502211158342</v>
       </c>
       <c r="T15">
-        <v>0.0924857285658352</v>
+        <v>0.1821502211158341</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N16">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O16">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P16">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q16">
-        <v>4.064951258615333</v>
+        <v>3.351130434361889</v>
       </c>
       <c r="R16">
-        <v>36.584561327538</v>
+        <v>30.160173909257</v>
       </c>
       <c r="S16">
-        <v>0.0007632903998433917</v>
+        <v>0.000449038514897822</v>
       </c>
       <c r="T16">
-        <v>0.0007632903998433918</v>
+        <v>0.0004490385148978219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H17">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I17">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J17">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N17">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O17">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P17">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q17">
-        <v>7.162299052684</v>
+        <v>6.54284144672</v>
       </c>
       <c r="R17">
-        <v>64.46069147415601</v>
+        <v>58.88557302048</v>
       </c>
       <c r="S17">
-        <v>0.001344890445152186</v>
+        <v>0.0008767154439354155</v>
       </c>
       <c r="T17">
-        <v>0.001344890445152187</v>
+        <v>0.0008767154439354157</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H18">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I18">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J18">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>5.860601</v>
       </c>
       <c r="O18">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P18">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q18">
-        <v>110.043930638102</v>
+        <v>32.251403035888</v>
       </c>
       <c r="R18">
-        <v>990.3953757429181</v>
+        <v>290.262627322992</v>
       </c>
       <c r="S18">
-        <v>0.02066334144574889</v>
+        <v>0.004321563247466937</v>
       </c>
       <c r="T18">
-        <v>0.0206633414457489</v>
+        <v>0.004321563247466937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H19">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I19">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J19">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N19">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O19">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P19">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q19">
-        <v>8.490915084399999</v>
+        <v>4.113844440575999</v>
       </c>
       <c r="R19">
-        <v>76.41823575959999</v>
+        <v>37.024599965184</v>
       </c>
       <c r="S19">
-        <v>0.001594369417363108</v>
+        <v>0.000551239241294605</v>
       </c>
       <c r="T19">
-        <v>0.001594369417363108</v>
+        <v>0.0005512392412946051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N20">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O20">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P20">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q20">
-        <v>243.046792443448</v>
+        <v>53.157760918912</v>
       </c>
       <c r="R20">
-        <v>2187.421131991032</v>
+        <v>478.419848270208</v>
       </c>
       <c r="S20">
-        <v>0.04563776330445014</v>
+        <v>0.00712293433092435</v>
       </c>
       <c r="T20">
-        <v>0.04563776330445015</v>
+        <v>0.00712293433092435</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N21">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O21">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P21">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q21">
-        <v>2.005880109954</v>
+        <v>0.131045034544</v>
       </c>
       <c r="R21">
-        <v>18.052920989586</v>
+        <v>1.179405310896</v>
       </c>
       <c r="S21">
-        <v>0.0003766512643711825</v>
+        <v>1.755952770235172E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003766512643711826</v>
+        <v>1.755952770235172E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H22">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I22">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J22">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N22">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O22">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P22">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q22">
-        <v>5.876828874690444</v>
+        <v>17.68387412838889</v>
       </c>
       <c r="R22">
-        <v>52.891459872214</v>
+        <v>159.1548671555</v>
       </c>
       <c r="S22">
-        <v>0.001103513123820741</v>
+        <v>0.002369570725994081</v>
       </c>
       <c r="T22">
-        <v>0.001103513123820741</v>
+        <v>0.002369570725994082</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H23">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I23">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J23">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>5.860601</v>
       </c>
       <c r="O23">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P23">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q23">
-        <v>90.29354182245189</v>
+        <v>87.16851178420276</v>
       </c>
       <c r="R23">
-        <v>812.6418764020669</v>
+        <v>784.5166060578249</v>
       </c>
       <c r="S23">
-        <v>0.01695474047686663</v>
+        <v>0.01168024338177842</v>
       </c>
       <c r="T23">
-        <v>0.01695474047686663</v>
+        <v>0.01168024338177842</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H24">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I24">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J24">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N24">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O24">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P24">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q24">
-        <v>6.966988473044444</v>
+        <v>11.11882472826666</v>
       </c>
       <c r="R24">
-        <v>62.7028962574</v>
+        <v>100.0694225544</v>
       </c>
       <c r="S24">
-        <v>0.00130821628082838</v>
+        <v>0.001489879502210647</v>
       </c>
       <c r="T24">
-        <v>0.001308216280828381</v>
+        <v>0.001489879502210648</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H25">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I25">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J25">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N25">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O25">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P25">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q25">
-        <v>199.4254075717898</v>
+        <v>143.6738396753111</v>
       </c>
       <c r="R25">
-        <v>1794.828668146108</v>
+        <v>1293.0645570778</v>
       </c>
       <c r="S25">
-        <v>0.03744682024459357</v>
+        <v>0.01925173873745509</v>
       </c>
       <c r="T25">
-        <v>0.03744682024459357</v>
+        <v>0.01925173873745509</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N26">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O26">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P26">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q26">
-        <v>1.645870140667666</v>
+        <v>0.3541861613027777</v>
       </c>
       <c r="R26">
-        <v>14.812831266009</v>
+        <v>3.187675451725</v>
       </c>
       <c r="S26">
-        <v>0.0003090509080761906</v>
+        <v>4.745957550263012E-05</v>
       </c>
       <c r="T26">
-        <v>0.0003090509080761906</v>
+        <v>4.745957550263012E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H27">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I27">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J27">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.1271473333333333</v>
+        <v>0.3963133333333334</v>
       </c>
       <c r="N27">
-        <v>0.381442</v>
+        <v>1.18894</v>
       </c>
       <c r="O27">
-        <v>0.01931841559435267</v>
+        <v>0.06801510022865438</v>
       </c>
       <c r="P27">
-        <v>0.01931841559435268</v>
+        <v>0.0680151002286544</v>
       </c>
       <c r="Q27">
-        <v>5.382151366833777</v>
+        <v>92.82828896990665</v>
       </c>
       <c r="R27">
-        <v>48.439362301504</v>
+        <v>835.45460072916</v>
       </c>
       <c r="S27">
-        <v>0.001010625763372029</v>
+        <v>0.0124386316307291</v>
       </c>
       <c r="T27">
-        <v>0.001010625763372029</v>
+        <v>0.0124386316307291</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H28">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I28">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J28">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>5.860601</v>
       </c>
       <c r="O28">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="P28">
-        <v>0.2968145242282677</v>
+        <v>0.3352644914084412</v>
       </c>
       <c r="Q28">
-        <v>82.69315304192355</v>
+        <v>457.5752882107793</v>
       </c>
       <c r="R28">
-        <v>744.238377377312</v>
+        <v>4118.177593897013</v>
       </c>
       <c r="S28">
-        <v>0.01552758836059972</v>
+        <v>0.0613133185641686</v>
       </c>
       <c r="T28">
-        <v>0.01552758836059972</v>
+        <v>0.0613133185641686</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H29">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I29">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J29">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.1507333333333333</v>
+        <v>0.249184</v>
       </c>
       <c r="N29">
-        <v>0.4522</v>
+        <v>0.747552</v>
       </c>
       <c r="O29">
-        <v>0.02290200746579107</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="P29">
-        <v>0.02290200746579108</v>
+        <v>0.04276483607762464</v>
       </c>
       <c r="Q29">
-        <v>6.380547627377777</v>
+        <v>58.36625319699199</v>
       </c>
       <c r="R29">
-        <v>57.4249286464</v>
+        <v>525.296278772928</v>
       </c>
       <c r="S29">
-        <v>0.001198098191066614</v>
+        <v>0.007820852147976181</v>
       </c>
       <c r="T29">
-        <v>0.001198098191066614</v>
+        <v>0.007820852147976183</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H30">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I30">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J30">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.314641333333333</v>
+        <v>3.219874666666667</v>
       </c>
       <c r="N30">
-        <v>12.943924</v>
+        <v>9.659624000000001</v>
       </c>
       <c r="O30">
-        <v>0.6555547193379749</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="P30">
-        <v>0.655554719337975</v>
+        <v>0.5525933138182881</v>
       </c>
       <c r="Q30">
-        <v>182.6389287199431</v>
+        <v>754.1897555912374</v>
       </c>
       <c r="R30">
-        <v>1643.750358479488</v>
+        <v>6787.707800321135</v>
       </c>
       <c r="S30">
-        <v>0.0342947632235819</v>
+        <v>0.1010585097880044</v>
       </c>
       <c r="T30">
-        <v>0.0342947632235819</v>
+        <v>0.1010585097880044</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H31">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I31">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J31">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.03560899999999999</v>
+        <v>0.007937666666666668</v>
       </c>
       <c r="N31">
-        <v>0.106827</v>
+        <v>0.023813</v>
       </c>
       <c r="O31">
-        <v>0.005410333373613584</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="P31">
-        <v>0.005410333373613585</v>
+        <v>0.001362258466991561</v>
       </c>
       <c r="Q31">
-        <v>1.507330299402666</v>
+        <v>1.859235996131333</v>
       </c>
       <c r="R31">
-        <v>13.565972694624</v>
+        <v>16.733123965182</v>
       </c>
       <c r="S31">
-        <v>0.0002830367878307678</v>
+        <v>0.0002491304313275288</v>
       </c>
       <c r="T31">
-        <v>0.0002830367878307678</v>
+        <v>0.0002491304313275288</v>
       </c>
     </row>
   </sheetData>
